--- a/f1_driver_data_with_fantasy_points.xlsx
+++ b/f1_driver_data_with_fantasy_points.xlsx
@@ -573,12 +573,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>perez</t>
+          <t>max_verstappen</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sergio Pérez</t>
+          <t>Max Verstappen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -598,18 +598,18 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1:44.589</t>
+          <t>1:22.905</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -626,22 +626,22 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -650,39 +650,39 @@
         <v>25</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>max_verstappen</t>
+          <t>leclerc</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Max Verstappen</t>
+          <t>Charles Leclerc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Red Bull</t>
+          <t>Ferrari</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -693,36 +693,36 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1:44.232</t>
+          <t>1:23.242</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>3</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Finished</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>3</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -745,39 +745,39 @@
         <v>18</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>leclerc</t>
+          <t>piastri</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charles Leclerc</t>
+          <t>Oscar Piastri</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ferrari</t>
+          <t>McLaren</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -788,50 +788,50 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1:23.218</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>4</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>1:44.561</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
       <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
         <v>2</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Finished</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>-1</v>
-      </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T4" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>15</v>
       </c>
       <c r="W4" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -852,27 +852,27 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>alonso</t>
+          <t>russell</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fernando Alonso</t>
+          <t>George Russell</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Aston Martin</t>
+          <t>Mercedes</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -883,50 +883,50 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1:23.355</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
         <v>3</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1:44.241</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>9</v>
+      </c>
+      <c r="S5" t="n">
         <v>6</v>
       </c>
-      <c r="J5" t="n">
-        <v>6</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Finished</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>8</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>12</v>
       </c>
       <c r="W5" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -947,27 +947,27 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sainz</t>
+          <t>gasly</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carlos Sainz</t>
+          <t>Pierre Gasly</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ferrari</t>
+          <t>Alpine F1 Team</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -978,50 +978,50 @@
         </is>
       </c>
       <c r="G6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1:23.705</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>8</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>6</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1:45.175</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Finished</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>-1</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="W6" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1042,27 +1042,27 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>hamilton</t>
+          <t>sainz</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lewis Hamilton</t>
+          <t>Carlos Sainz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mercedes</t>
+          <t>Ferrari</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
         <v>6</v>
@@ -1073,50 +1073,50 @@
         </is>
       </c>
       <c r="G7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1:23.465</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>7</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1:45.346</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
         <v>5</v>
       </c>
-      <c r="J7" t="n">
-        <v>7</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Finished</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>6</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>6</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2</v>
-      </c>
       <c r="T7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1125,7 +1125,7 @@
         <v>8</v>
       </c>
       <c r="W7" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1137,18 +1137,18 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>stroll</t>
+          <t>alonso</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lance Stroll</t>
+          <t>Fernando Alonso</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1168,18 +1168,18 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1:45.627</t>
+          <t>1:23.667</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1196,22 +1196,22 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>6</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,27 +1232,27 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>russell</t>
+          <t>zhou</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>George Russell</t>
+          <t>Guanyu Zhou</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mercedes</t>
+          <t>Sauber</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1263,38 +1263,38 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1:43.370</t>
+          <t>1:23.889</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
+        <v>19</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>18</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>4</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Finished</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" t="n">
-        <v>3</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1315,10 +1315,10 @@
         <v>4</v>
       </c>
       <c r="W9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1327,27 +1327,27 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>norris</t>
+          <t>kevin_magnussen</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lando Norris</t>
+          <t>Kevin Magnussen</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>McLaren</t>
+          <t>Haas F1 Team</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1358,18 +1358,18 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1:45.738</t>
+          <t>1:24.259</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1386,22 +1386,22 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>-7</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-7</v>
+        <v>5</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>2</v>
       </c>
       <c r="W10" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1422,27 +1422,27 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>-3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>tsunoda</t>
+          <t>norris</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Yuki Tsunoda</t>
+          <t>Lando Norris</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AlphaTauri</t>
+          <t>McLaren</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1453,50 +1453,50 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1:45.727</t>
+          <t>1:22.384</t>
         </is>
       </c>
       <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-7</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
         <v>8</v>
       </c>
-      <c r="J11" t="n">
-        <v>19</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Collision damage</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>16</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>3</v>
-      </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T11" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1517,27 +1517,27 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>piastri</t>
+          <t>bottas</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Oscar Piastri</t>
+          <t>Valtteri Bottas</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>McLaren</t>
+          <t>Sauber</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E12" t="n">
         <v>11</v>
@@ -1548,18 +1548,18 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1:45.631</t>
+          <t>1:25.533</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1612,27 +1612,27 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>albon</t>
+          <t>hamilton</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Alexander Albon</t>
+          <t>Lewis Hamilton</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Mercedes</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
         <v>12</v>
@@ -1643,18 +1643,18 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1:45.925</t>
+          <t>1:23.865</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1671,22 +1671,22 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="P13" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1707,27 +1707,27 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>kevin_magnussen</t>
+          <t>tsunoda</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Kevin Magnussen</t>
+          <t>Yuki Tsunoda</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Haas F1 Team</t>
+          <t>RB F1 Team</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1738,18 +1738,18 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1:45.850</t>
+          <t>1:26.144</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1766,10 +1766,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1802,23 +1802,23 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>gasly</t>
+          <t>lawson</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pierre Gasly</t>
+          <t>Liam Lawson</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Alpine F1 Team</t>
+          <t>RB F1 Team</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1833,18 +1833,18 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1:45.540</t>
+          <t>1:26.076</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1897,34 +1897,34 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>7</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ocon</t>
+          <t>albon</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Esteban Ocon</t>
+          <t>Alexander Albon</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Alpine F1 Team</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Finished</t>
+          <t>+1 Lap</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1932,23 +1932,23 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1:45.908</t>
+          <t>1:25.559</t>
         </is>
       </c>
       <c r="I16" t="n">
+        <v>16</v>
+      </c>
+      <c r="J16" t="n">
+        <v>15</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
         <v>12</v>
       </c>
-      <c r="J16" t="n">
-        <v>18</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Finished</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-15</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>-18</v>
+        <v>-3</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-18</v>
+        <v>-3</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-15</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1992,57 +1992,57 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>-33</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>sargeant</t>
+          <t>hulkenberg</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Logan Sargeant</t>
+          <t>Nico Hülkenberg</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Haas F1 Team</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Finished</t>
+          <t>Spun off</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1:46.501</t>
+          <t>1:25.767</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J17" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Accident</t>
+          <t>Finished</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2051,31 +2051,31 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T17" t="n">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2087,49 +2087,49 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>-42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>hulkenberg</t>
+          <t>perez</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nico Hülkenberg</t>
+          <t>Sergio Pérez</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Haas F1 Team</t>
+          <t>Red Bull</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E18" t="n">
         <v>17</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>+1 Lap</t>
+          <t>Spun off</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1:46.731</t>
+          <t>1:25.288</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2146,22 +2146,22 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>-17</v>
+        <v>-8</v>
       </c>
       <c r="P18" t="n">
-        <v>-3</v>
+        <v>-20</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>-3</v>
+        <v>-20</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>-17</v>
+        <v>-8</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2182,58 +2182,58 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>-20</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bottas</t>
+          <t>stroll</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Valtteri Bottas</t>
+          <t>Lance Stroll</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Alfa Romeo</t>
+          <t>Aston Martin</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E19" t="n">
         <v>18</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>+1 Lap</t>
+          <t>Collision damage</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1:46.304</t>
+          <t>1:30.935</t>
         </is>
       </c>
       <c r="I19" t="n">
+        <v>15</v>
+      </c>
+      <c r="J19" t="n">
+        <v>13</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
         <v>14</v>
       </c>
-      <c r="J19" t="n">
-        <v>16</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Finished</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>15</v>
-      </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="P19" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2277,49 +2277,43 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>zhou</t>
+          <t>colapinto</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Guanyu Zhou</t>
+          <t>Franco Colapinto</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Alfa Romeo</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E20" t="n">
         <v>19</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Overheating</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
+          <t>Collision</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
         <v>19</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>1:47.553</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>16</v>
-      </c>
       <c r="J20" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2327,7 +2321,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2336,10 +2330,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>-18</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2351,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>-18</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2360,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2372,44 +2366,38 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>-2</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>de_vries</t>
+          <t>ocon</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nyck de Vries</t>
+          <t>Esteban Ocon</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AlphaTauri</t>
+          <t>Alpine F1 Team</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E21" t="n">
         <v>20</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Accident</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>20</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>1:48.781</t>
-        </is>
-      </c>
+          <t>Collision</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
         <v>20</v>
       </c>
@@ -2422,19 +2410,19 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -2446,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2455,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2464,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>-18</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
